--- a/data/trans_bre/P14B23_2016_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14B23_2016_2023-Edad-trans_bre.xlsx
@@ -609,14 +609,14 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.452303152459621</v>
+        <v>-1.535963010867614</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.103822464002266</v>
+        <v>-2.96368285782082</v>
       </c>
       <c r="E5" s="6" t="inlineStr"/>
       <c r="F5" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8908624267252426</v>
       </c>
     </row>
     <row r="6">
@@ -627,14 +627,14 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5070210962792487</v>
+        <v>0.502776408412266</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.881833520781511</v>
+        <v>3.242835550905446</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>4.806277865092618</v>
+        <v>5.375900720833654</v>
       </c>
     </row>
     <row r="7">
@@ -669,14 +669,14 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4761471816812382</v>
+        <v>-0.4793827758307982</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.9030087803611661</v>
+        <v>-0.8073530096470096</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.8083857408063821</v>
+        <v>-0.8430673778106665</v>
       </c>
     </row>
     <row r="9">
@@ -687,14 +687,14 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.26136769861065</v>
+        <v>1.172235744835838</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.101920207614333</v>
+        <v>2.198077223494439</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>10.27670727824334</v>
+        <v>7.877450552904027</v>
       </c>
     </row>
     <row r="10">
@@ -712,13 +712,13 @@
         <v>1.25601411221132</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7809191223781868</v>
+        <v>0.7809191223781875</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>1.33510133750034</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.2453567260106732</v>
+        <v>0.2453567260106735</v>
       </c>
     </row>
     <row r="11">
@@ -729,16 +729,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01966428905441981</v>
+        <v>-0.005646613115602488</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.599925970850253</v>
+        <v>-1.373625085273713</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.1709526565298914</v>
+        <v>-0.1833535997597226</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3672621551966854</v>
+        <v>-0.3436506890927891</v>
       </c>
     </row>
     <row r="12">
@@ -749,16 +749,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.672289598161918</v>
+        <v>2.744041350002785</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.713319680042128</v>
+        <v>2.666835419921458</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>6.216382644183655</v>
+        <v>6.814699506951252</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.448830111086634</v>
+        <v>1.369881785202572</v>
       </c>
     </row>
     <row r="13">
@@ -776,13 +776,13 @@
         <v>3.23957455438067</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.771564747603664</v>
+        <v>1.771564747603668</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>1.835473599673584</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.391887508851035</v>
+        <v>0.3918875088510358</v>
       </c>
     </row>
     <row r="14">
@@ -793,16 +793,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.369584667409361</v>
+        <v>1.426238271025182</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4906926496228296</v>
+        <v>-0.3868112010057752</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4801024314537585</v>
+        <v>0.491454123167996</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08829112901314498</v>
+        <v>-0.06996260029712216</v>
       </c>
     </row>
     <row r="15">
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.253579453551326</v>
+        <v>5.510858878202693</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.054895205003782</v>
+        <v>4.018535356434231</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.885109341584425</v>
+        <v>4.914757747683729</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.265243491143898</v>
+        <v>1.275409432847524</v>
       </c>
     </row>
     <row r="16">
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.068085502934543</v>
+        <v>2.947219720688144</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.637482366352778</v>
+        <v>2.513642169841482</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.5805348119919846</v>
+        <v>0.6230865172764686</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.4023125703318314</v>
+        <v>0.4009697420963087</v>
       </c>
     </row>
     <row r="18">
@@ -877,16 +877,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.090601193160468</v>
+        <v>9.265016131158475</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.406782037123377</v>
+        <v>7.458793139915934</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5.513610558046111</v>
+        <v>5.004767375455712</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.202586535249222</v>
+        <v>2.183003085501269</v>
       </c>
     </row>
     <row r="19">
@@ -904,13 +904,13 @@
         <v>6.867885946042781</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>5.792190375212741</v>
+        <v>5.792190375212742</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>12.01193414719481</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2.10724483740352</v>
+        <v>2.107244837403521</v>
       </c>
     </row>
     <row r="20">
@@ -921,16 +921,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.350772225308584</v>
+        <v>4.38644714365995</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.61715278813756</v>
+        <v>3.518811453694512</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>2.75503698845079</v>
+        <v>1.968501694401036</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.8067009555371778</v>
+        <v>0.7963194688100055</v>
       </c>
     </row>
     <row r="21">
@@ -941,14 +941,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.03787624313132</v>
+        <v>10.02711047902996</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.28980606449842</v>
+        <v>8.239889896261829</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>4.515842984008705</v>
+        <v>4.409508105196955</v>
       </c>
     </row>
     <row r="22">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7605794252226628</v>
+        <v>0.7963269355379471</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.176272572102039</v>
+        <v>1.212533445129337</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.1255717842519768</v>
+        <v>0.06271264043029176</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.1285266176897207</v>
+        <v>0.1872364672452719</v>
       </c>
     </row>
     <row r="24">
@@ -1003,16 +1003,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.232869072842579</v>
+        <v>7.993049397003333</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.911744126934584</v>
+        <v>6.775621502443077</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>3.823560205653096</v>
+        <v>3.60459071184096</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.164267306035043</v>
+        <v>2.218139216654334</v>
       </c>
     </row>
     <row r="25">
@@ -1030,13 +1030,13 @@
         <v>3.002995427706014</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>2.613441058333245</v>
+        <v>2.613441058333246</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>2.191814170264379</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.784054551303826</v>
+        <v>0.7840545513038262</v>
       </c>
     </row>
     <row r="26">
@@ -1047,16 +1047,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.228353116758742</v>
+        <v>2.189520783960458</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.663273539500607</v>
+        <v>1.747876436563411</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.282399475436057</v>
+        <v>1.306162695570441</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4162760138811117</v>
+        <v>0.4511211699160346</v>
       </c>
     </row>
     <row r="27">
@@ -1067,16 +1067,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.83711324725617</v>
+        <v>3.809821036141889</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.510511868656216</v>
+        <v>3.626178027036528</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.56743307262092</v>
+        <v>3.475883763298539</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.234720582871541</v>
+        <v>1.278256847035783</v>
       </c>
     </row>
     <row r="28">
